--- a/Data/Light pollution/Light pollution.xlsx
+++ b/Data/Light pollution/Light pollution.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joc_h\lightingcdmx\Data\Light pollution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joc_h\lightcdmx\Data\Light pollution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72465964-4A7D-495D-A385-A7F29BBFBE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CF6A9C-E483-4610-8CA4-7AB8CAA0E791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{055284A3-9B58-405F-B744-0B53F80267A9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>rasterColumn</t>
   </si>
@@ -110,9 +110,6 @@
     <t>viirs_nas_201500</t>
   </si>
   <si>
-    <t>Transición de vapor de sodio a halogenuros metálicos</t>
-  </si>
-  <si>
     <t>viirs_nas_201600</t>
   </si>
   <si>
@@ -144,6 +141,12 @@
   </si>
   <si>
     <t>Yellow values are estimated from the relation VIIRS/DMSP 2013</t>
+  </si>
+  <si>
+    <t>Programa ilumina tu ciudad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2352,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA677FAF-466A-4FEE-9EA6-AD551F42DA19}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2367,7 +2370,7 @@
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>45.051650000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2411,10 +2414,10 @@
         <v>43.703850000000003</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>42.353850000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>41.55</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>42.764290000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>42.621429999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2485,8 +2488,11 @@
       <c r="F9">
         <v>41.050550000000001</v>
       </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2498,7 +2504,7 @@
         <v>43.496699999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2510,7 +2516,7 @@
         <v>42.106589999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2522,7 +2528,7 @@
         <v>43.275269999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>43.385710000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2546,7 +2552,7 @@
         <v>43.023629999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>43.858240000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2584,7 +2590,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>7296</v>
@@ -2660,12 +2666,12 @@
         <v>213415.6</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>7296</v>
@@ -2682,7 +2688,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>7296</v>
@@ -2699,7 +2705,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>7296</v>
@@ -2716,7 +2722,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>7296</v>
@@ -2731,12 +2737,12 @@
         <v>222266.96</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>7296</v>
@@ -2753,7 +2759,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>7296</v>
@@ -2770,7 +2776,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>7296</v>
@@ -2787,7 +2793,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>7296</v>
